--- a/Team A/Simplify Game/Level Setup.xlsx
+++ b/Team A/Simplify Game/Level Setup.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AIAA Cage\Documents\GitHub\Idiots-Inc\Team A\Simplify Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DC561A-EC96-4DB3-9377-378E7E8C1026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B39D13A-AE35-4E7D-BF0E-4E2736735E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{7C810912-F818-4B7B-8646-C1C8C53B88EE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="10935" xr2:uid="{7C810912-F818-4B7B-8646-C1C8C53B88EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -262,12 +263,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,8 +289,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A325F1C-9BB0-48B9-B99F-B03C4912B60F}">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +716,9 @@
         <v>31</v>
       </c>
     </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+    </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
@@ -721,6 +732,7 @@
       <c r="J7" t="s">
         <v>47</v>
       </c>
+      <c r="N7" s="1"/>
       <c r="P7" t="s">
         <v>52</v>
       </c>
@@ -735,12 +747,14 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
+      <c r="F8" s="1"/>
       <c r="I8" t="s">
         <v>46</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
       </c>
+      <c r="N8" s="1"/>
       <c r="P8" t="s">
         <v>61</v>
       </c>
@@ -764,7 +778,7 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
@@ -782,12 +796,12 @@
       <c r="M9" t="s">
         <v>14</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P9" t="str">
         <f ca="1">_xlfn.CONCAT("18 trees, choose ",TEXT(RANDBETWEEN(0,18),"0"))</f>
-        <v>18 trees, choose 13</v>
+        <v>18 trees, choose 11</v>
       </c>
       <c r="Q9" t="s">
         <v>62</v>
@@ -818,7 +832,7 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I10">
@@ -833,7 +847,7 @@
       <c r="M10" t="s">
         <v>24</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P10">
@@ -841,19 +855,19 @@
       </c>
       <c r="R10" t="str" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>tall</v>
+        <v>short</v>
       </c>
       <c r="S10" t="str" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>triangle</v>
+        <v>square</v>
       </c>
       <c r="T10" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>white</v>
+        <v>green</v>
       </c>
       <c r="U10" t="str" cm="1">
         <f t="array" aca="1" ref="U10" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>two</v>
+        <v>one</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -869,7 +883,7 @@
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I11">
@@ -884,7 +898,7 @@
       <c r="M11" t="s">
         <v>24</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P11">
@@ -892,19 +906,19 @@
       </c>
       <c r="R11" t="str" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>short</v>
+        <v>tall</v>
       </c>
       <c r="S11" t="str" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>square</v>
+        <v>circle</v>
       </c>
       <c r="T11" t="str" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>green</v>
+        <v>white</v>
       </c>
       <c r="U11" t="str" cm="1">
         <f t="array" aca="1" ref="U11" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>four</v>
+        <v>three</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -920,7 +934,7 @@
       <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I12">
@@ -935,7 +949,7 @@
       <c r="M12" t="s">
         <v>24</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P12">
@@ -943,19 +957,19 @@
       </c>
       <c r="R12" t="str" cm="1">
         <f t="array" aca="1" ref="R12" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>tall</v>
+        <v>short</v>
       </c>
       <c r="S12" t="str" cm="1">
         <f t="array" aca="1" ref="S12" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>triangle</v>
+        <v>circle</v>
       </c>
       <c r="T12" t="str" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>white</v>
+        <v>green</v>
       </c>
       <c r="U12" t="str" cm="1">
         <f t="array" aca="1" ref="U12" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>three</v>
+        <v>two</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -971,7 +985,7 @@
       <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I13">
@@ -986,7 +1000,7 @@
       <c r="M13" t="s">
         <v>21</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P13">
@@ -994,19 +1008,19 @@
       </c>
       <c r="R13" t="str" cm="1">
         <f t="array" aca="1" ref="R13" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>tall</v>
+        <v>short</v>
       </c>
       <c r="S13" t="str" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>circle</v>
+        <v>square</v>
       </c>
       <c r="T13" t="str" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>white</v>
+        <v>red</v>
       </c>
       <c r="U13" t="str" cm="1">
         <f t="array" aca="1" ref="U13" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>three</v>
+        <v>zero</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1022,7 +1036,7 @@
       <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I14">
@@ -1037,7 +1051,7 @@
       <c r="M14" t="s">
         <v>26</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P14">
@@ -1045,7 +1059,7 @@
       </c>
       <c r="R14" t="str" cm="1">
         <f t="array" aca="1" ref="R14" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>tall</v>
+        <v>short</v>
       </c>
       <c r="S14" t="str" cm="1">
         <f t="array" aca="1" ref="S14" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
@@ -1053,11 +1067,11 @@
       </c>
       <c r="T14" t="str" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>red</v>
+        <v>blue</v>
       </c>
       <c r="U14" t="str" cm="1">
         <f t="array" aca="1" ref="U14" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>two</v>
+        <v>three</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1073,7 +1087,7 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I15">
@@ -1088,7 +1102,7 @@
       <c r="M15" t="s">
         <v>26</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P15">
@@ -1096,11 +1110,11 @@
       </c>
       <c r="R15" t="str" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>tall</v>
+        <v>short</v>
       </c>
       <c r="S15" t="str" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>square</v>
+        <v>triangle</v>
       </c>
       <c r="T15" t="str" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
@@ -1108,10 +1122,11 @@
       </c>
       <c r="U15" t="str" cm="1">
         <f t="array" aca="1" ref="U15" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>four</v>
+        <v>one</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
       <c r="I16">
         <v>7</v>
       </c>
@@ -1124,7 +1139,7 @@
       <c r="M16" t="s">
         <v>26</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P16">
@@ -1140,11 +1155,11 @@
       </c>
       <c r="T16" t="str" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>red</v>
+        <v>white</v>
       </c>
       <c r="U16" t="str" cm="1">
         <f t="array" aca="1" ref="U16" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>four</v>
+        <v>two</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1154,6 +1169,7 @@
       <c r="B17" t="s">
         <v>35</v>
       </c>
+      <c r="F17" s="1"/>
       <c r="I17">
         <v>8</v>
       </c>
@@ -1166,7 +1182,7 @@
       <c r="M17" t="s">
         <v>25</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P17">
@@ -1178,15 +1194,15 @@
       </c>
       <c r="S17" t="str" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>triangle</v>
+        <v>square</v>
       </c>
       <c r="T17" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>blue</v>
+        <v>white</v>
       </c>
       <c r="U17" t="str" cm="1">
         <f t="array" aca="1" ref="U17" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>three</v>
+        <v>four</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -1205,7 +1221,7 @@
       <c r="E18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I18">
@@ -1220,7 +1236,7 @@
       <c r="M18" t="s">
         <v>25</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P18">
@@ -1228,7 +1244,7 @@
       </c>
       <c r="R18" t="str" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>tall</v>
+        <v>short</v>
       </c>
       <c r="S18" t="str" cm="1">
         <f t="array" aca="1" ref="S18" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
@@ -1236,11 +1252,11 @@
       </c>
       <c r="T18" t="str" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>red</v>
+        <v>blue</v>
       </c>
       <c r="U18" t="str" cm="1">
         <f t="array" aca="1" ref="U18" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>one</v>
+        <v>three</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1256,7 +1272,7 @@
       <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I19">
@@ -1271,7 +1287,7 @@
       <c r="M19" t="s">
         <v>21</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P19">
@@ -1279,15 +1295,15 @@
       </c>
       <c r="R19" t="str" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>short</v>
+        <v>tall</v>
       </c>
       <c r="S19" t="str" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>square</v>
+        <v>circle</v>
       </c>
       <c r="T19" t="str" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>blue</v>
+        <v>white</v>
       </c>
       <c r="U19" t="str" cm="1">
         <f t="array" aca="1" ref="U19" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
@@ -1307,7 +1323,7 @@
       <c r="E20" t="s">
         <v>24</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I20">
@@ -1322,7 +1338,7 @@
       <c r="M20" t="s">
         <v>21</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P20">
@@ -1330,19 +1346,19 @@
       </c>
       <c r="R20" t="str" cm="1">
         <f t="array" aca="1" ref="R20" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>short</v>
+        <v>tall</v>
       </c>
       <c r="S20" t="str" cm="1">
         <f t="array" aca="1" ref="S20" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>circle</v>
+        <v>triangle</v>
       </c>
       <c r="T20" t="str" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>white</v>
+        <v>green</v>
       </c>
       <c r="U20" t="str" cm="1">
         <f t="array" aca="1" ref="U20" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>two</v>
+        <v>three</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -1358,7 +1374,7 @@
       <c r="E21" t="s">
         <v>24</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I21">
@@ -1373,7 +1389,7 @@
       <c r="M21" t="s">
         <v>21</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P21">
@@ -1381,11 +1397,11 @@
       </c>
       <c r="R21" t="str" cm="1">
         <f t="array" aca="1" ref="R21" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>short</v>
+        <v>tall</v>
       </c>
       <c r="S21" t="str" cm="1">
         <f t="array" aca="1" ref="S21" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>square</v>
+        <v>triangle</v>
       </c>
       <c r="T21" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
@@ -1393,7 +1409,7 @@
       </c>
       <c r="U21" t="str" cm="1">
         <f t="array" aca="1" ref="U21" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>four</v>
+        <v>one</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -1409,19 +1425,20 @@
       <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="N22" s="1"/>
       <c r="P22">
         <v>13</v>
       </c>
       <c r="R22" t="str" cm="1">
         <f t="array" aca="1" ref="R22" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>tall</v>
+        <v>short</v>
       </c>
       <c r="S22" t="str" cm="1">
         <f t="array" aca="1" ref="S22" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>square</v>
+        <v>circle</v>
       </c>
       <c r="T22" t="str" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
@@ -1429,7 +1446,7 @@
       </c>
       <c r="U22" t="str" cm="1">
         <f t="array" aca="1" ref="U22" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>four</v>
+        <v>three</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -1445,7 +1462,7 @@
       <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I23" t="s">
@@ -1454,24 +1471,25 @@
       <c r="J23" t="s">
         <v>51</v>
       </c>
+      <c r="N23" s="1"/>
       <c r="P23">
         <v>14</v>
       </c>
       <c r="R23" t="str" cm="1">
         <f t="array" aca="1" ref="R23" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>short</v>
+        <v>tall</v>
       </c>
       <c r="S23" t="str" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>circle</v>
+        <v>square</v>
       </c>
       <c r="T23" t="str" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>red</v>
+        <v>green</v>
       </c>
       <c r="U23" t="str" cm="1">
         <f t="array" aca="1" ref="U23" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>four</v>
+        <v>zero</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -1487,7 +1505,7 @@
       <c r="E24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I24" t="s">
@@ -1505,7 +1523,7 @@
       <c r="M24" t="s">
         <v>14</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P24">
@@ -1525,10 +1543,11 @@
       </c>
       <c r="U24" t="str" cm="1">
         <f t="array" aca="1" ref="U24" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>zero</v>
+        <v>one</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
       <c r="I25">
         <v>1</v>
       </c>
@@ -1541,7 +1560,7 @@
       <c r="M25" t="s">
         <v>24</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P25">
@@ -1549,15 +1568,15 @@
       </c>
       <c r="R25" t="str" cm="1">
         <f t="array" aca="1" ref="R25" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>tall</v>
+        <v>short</v>
       </c>
       <c r="S25" t="str" cm="1">
         <f t="array" aca="1" ref="S25" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
-        <v>square</v>
+        <v>triangle</v>
       </c>
       <c r="T25" t="str" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>blue</v>
+        <v>white</v>
       </c>
       <c r="U25" t="str" cm="1">
         <f t="array" aca="1" ref="U25" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
@@ -1571,6 +1590,7 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
+      <c r="F26" s="1"/>
       <c r="I26">
         <v>2</v>
       </c>
@@ -1583,7 +1603,7 @@
       <c r="M26" t="s">
         <v>24</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P26">
@@ -1599,7 +1619,7 @@
       </c>
       <c r="T26" t="str" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">INDEX($D$4:$G$4,RANDBETWEEN(1,4))</f>
-        <v>green</v>
+        <v>white</v>
       </c>
       <c r="U26" t="str" cm="1">
         <f t="array" aca="1" ref="U26" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
@@ -1622,7 +1642,7 @@
       <c r="E27" t="s">
         <v>14</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I27">
@@ -1637,7 +1657,7 @@
       <c r="M27" t="s">
         <v>24</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P27">
@@ -1645,7 +1665,7 @@
       </c>
       <c r="R27" t="str" cm="1">
         <f t="array" aca="1" ref="R27" ca="1">INDEX($D$2:$E$2,RANDBETWEEN(1,2))</f>
-        <v>short</v>
+        <v>tall</v>
       </c>
       <c r="S27" t="str" cm="1">
         <f t="array" aca="1" ref="S27" ca="1">INDEX($D$3:$F$3,RANDBETWEEN(1,3))</f>
@@ -1657,7 +1677,7 @@
       </c>
       <c r="U27" t="str" cm="1">
         <f t="array" aca="1" ref="U27" ca="1">INDEX($D$5:$H$5,RANDBETWEEN(1,5))</f>
-        <v>four</v>
+        <v>one</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -1673,7 +1693,7 @@
       <c r="E28" t="s">
         <v>24</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I28">
@@ -1688,7 +1708,7 @@
       <c r="M28" t="s">
         <v>25</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1705,7 +1725,7 @@
       <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I29">
@@ -1720,7 +1740,7 @@
       <c r="M29" t="s">
         <v>26</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1737,7 +1757,7 @@
       <c r="E30" t="s">
         <v>24</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I30">
@@ -1752,7 +1772,7 @@
       <c r="M30" t="s">
         <v>26</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1769,7 +1789,7 @@
       <c r="E31" t="s">
         <v>21</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I31">
@@ -1784,7 +1804,7 @@
       <c r="M31" t="s">
         <v>26</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1801,7 +1821,7 @@
       <c r="E32" t="s">
         <v>25</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I32">
@@ -1816,7 +1836,7 @@
       <c r="M32" t="s">
         <v>21</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1833,7 +1853,7 @@
       <c r="E33" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I33">
@@ -1848,11 +1868,12 @@
       <c r="M33" t="s">
         <v>21</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
       <c r="I34">
         <v>10</v>
       </c>
@@ -1865,7 +1886,7 @@
       <c r="M34" t="s">
         <v>25</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1876,6 +1897,7 @@
       <c r="B35" t="s">
         <v>42</v>
       </c>
+      <c r="F35" s="1"/>
       <c r="I35">
         <v>11</v>
       </c>
@@ -1888,7 +1910,7 @@
       <c r="M35" t="s">
         <v>25</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1908,7 +1930,7 @@
       <c r="E36" t="s">
         <v>14</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I36">
@@ -1923,7 +1945,7 @@
       <c r="M36" t="s">
         <v>25</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1940,9 +1962,10 @@
       <c r="E37" t="s">
         <v>24</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1957,12 +1980,13 @@
       <c r="E38" t="s">
         <v>26</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I38" t="s">
         <v>54</v>
       </c>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1977,7 +2001,7 @@
       <c r="E39" t="s">
         <v>24</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I39" t="s">
@@ -1995,7 +2019,7 @@
       <c r="M39" t="s">
         <v>14</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2012,7 +2036,7 @@
       <c r="E40" t="s">
         <v>21</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I40">
@@ -2027,7 +2051,7 @@
       <c r="M40" t="s">
         <v>24</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2044,7 +2068,7 @@
       <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I41">
@@ -2059,7 +2083,7 @@
       <c r="M41" t="s">
         <v>26</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2076,7 +2100,7 @@
       <c r="E42" t="s">
         <v>26</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I42">
@@ -2091,11 +2115,12 @@
       <c r="M42" t="s">
         <v>26</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
       <c r="I43">
         <v>4</v>
       </c>
@@ -2108,11 +2133,12 @@
       <c r="M43" t="s">
         <v>25</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
       <c r="I44">
         <v>5</v>
       </c>
@@ -2125,11 +2151,12 @@
       <c r="M44" t="s">
         <v>24</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
       <c r="I45">
         <v>6</v>
       </c>
@@ -2142,7 +2169,7 @@
       <c r="M45" t="s">
         <v>21</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2159,7 +2186,7 @@
       <c r="M46" t="s">
         <v>25</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2176,7 +2203,7 @@
       <c r="M47" t="s">
         <v>21</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2193,7 +2220,7 @@
       <c r="M48" t="s">
         <v>21</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2210,7 +2237,7 @@
       <c r="M49" t="s">
         <v>24</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2227,7 +2254,7 @@
       <c r="M50" t="s">
         <v>25</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2244,14 +2271,18 @@
       <c r="M51" t="s">
         <v>26</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="1" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="52" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="1"/>
     </row>
     <row r="53" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
         <v>53</v>
       </c>
+      <c r="N53" s="1"/>
     </row>
     <row r="54" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
@@ -2269,7 +2300,7 @@
       <c r="M54" t="s">
         <v>14</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2286,7 +2317,7 @@
       <c r="M55" t="s">
         <v>24</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2303,7 +2334,7 @@
       <c r="M56" t="s">
         <v>26</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2320,7 +2351,7 @@
       <c r="M57" t="s">
         <v>26</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2337,7 +2368,7 @@
       <c r="M58" t="s">
         <v>25</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2354,7 +2385,7 @@
       <c r="M59" t="s">
         <v>24</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2371,7 +2402,7 @@
       <c r="M60" t="s">
         <v>21</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2388,7 +2419,7 @@
       <c r="M61" t="s">
         <v>25</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2405,7 +2436,7 @@
       <c r="M62" t="s">
         <v>21</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2422,7 +2453,7 @@
       <c r="M63" t="s">
         <v>21</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2439,7 +2470,7 @@
       <c r="M64" t="s">
         <v>24</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2456,7 +2487,7 @@
       <c r="M65" t="s">
         <v>25</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2473,9 +2504,15 @@
       <c r="M66" t="s">
         <v>26</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N66" s="1" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="N68" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
